--- a/schematic/BOM.xlsx
+++ b/schematic/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="48" windowWidth="16260" windowHeight="6384"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="22980" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>Sensors, BNO055</t>
   </si>
@@ -34,15 +34,9 @@
     <t>Sensors, ICM-20789</t>
   </si>
   <si>
-    <t>CAPACITOR, 120nF</t>
-  </si>
-  <si>
     <t>CAPACITOR, 6.8nF</t>
   </si>
   <si>
-    <t>Xtal</t>
-  </si>
-  <si>
     <t>CAPACITOR, 22pF</t>
   </si>
   <si>
@@ -97,7 +91,10 @@
     <t>LED_blue</t>
   </si>
   <si>
-    <t>RESISTOR, 150Ω</t>
+    <t>RESISTOR, 130Ω</t>
+  </si>
+  <si>
+    <t>RESISTOR, 30Ω</t>
   </si>
   <si>
     <t>LED_green</t>
@@ -112,13 +109,10 @@
     <t>PIC32, PIC32MKxxxGPD/E064</t>
   </si>
   <si>
-    <t>Xtal, Osc</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
-    <t>C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C20, C21, C22, C23, C25, C27, C29, C33</t>
+    <t>C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C20, C21, C22, C23, C25, C27, C28, C29, C33</t>
   </si>
   <si>
     <t>C24</t>
@@ -133,9 +127,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>C28</t>
-  </si>
-  <si>
     <t>C30</t>
   </si>
   <si>
@@ -196,7 +187,10 @@
     <t>D4, D5</t>
   </si>
   <si>
-    <t>R5, R6, R14, R15</t>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R5, R6, R15</t>
   </si>
   <si>
     <t>D3, D6</t>
@@ -253,6 +247,9 @@
     <t>Philips\SOT-23</t>
   </si>
   <si>
+    <t>Ultiboard\R0603</t>
+  </si>
+  <si>
     <t>Ultiboard\0603LED</t>
   </si>
   <si>
@@ -286,7 +283,13 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Digikey part number</t>
+    <t>Digikey Part#</t>
+  </si>
+  <si>
+    <t>Xtal 32.768 kHz</t>
+  </si>
+  <si>
+    <t>Xtal, Osc 24 MHz</t>
   </si>
 </sst>
 </file>
@@ -322,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -330,6 +333,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,494 +639,495 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="2" max="2" width="28.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4">
+      <c r="A3" s="6">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="43.2">
+      <c r="A6" s="6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2">
+      <c r="A19" s="6">
+        <v>9</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="6">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.2">
-      <c r="A3">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57.6">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28.8">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="43.2">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="6">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D23" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="6">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="6">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8">
-      <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="6">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="D33" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="6">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/schematic/BOM.xlsx
+++ b/schematic/BOM.xlsx
@@ -91,9 +91,6 @@
     <t>LED_blue</t>
   </si>
   <si>
-    <t>RESISTOR, 130Ω</t>
-  </si>
-  <si>
     <t>RESISTOR, 30Ω</t>
   </si>
   <si>
@@ -290,6 +287,9 @@
   </si>
   <si>
     <t>Xtal, Osc 24 MHz</t>
+  </si>
+  <si>
+    <t>RESISTOR, 120Ω</t>
   </si>
 </sst>
 </file>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -653,19 +653,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="86.4">
@@ -690,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -704,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -718,10 +718,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2">
@@ -732,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -746,10 +746,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -760,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -771,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -788,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -802,10 +802,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -816,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -830,10 +830,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -844,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -858,10 +858,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -872,10 +872,10 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -886,10 +886,10 @@
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -900,10 +900,10 @@
         <v>15</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="43.2">
@@ -914,10 +914,10 @@
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -928,10 +928,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -942,10 +942,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -956,10 +956,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -970,10 +970,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -984,10 +984,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -998,10 +998,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1012,10 +1012,10 @@
         <v>23</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1026,10 +1026,10 @@
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1037,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1051,13 +1051,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1065,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1079,13 +1079,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1093,13 +1093,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1107,13 +1107,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1121,13 +1121,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
